--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\projects\flowMagic_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719765A9-4E54-4D84-841F-061F75D04B6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C967F-A096-4871-A2DD-554BE947A137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="150" windowWidth="10905" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>CD5CD21_Bcell</t>
   </si>
   <si>
-    <t>CD5Ly6C_Lymphocyte</t>
-  </si>
-  <si>
     <t>CD11bLy6C_NK</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>2 (CD161, CD19)</t>
+  </si>
+  <si>
+    <t>01_CD5CD11b_CD11b+lymphocyte_</t>
   </si>
 </sst>
 </file>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D2:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,7 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="7" width="33.7109375" customWidth="1"/>
   </cols>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3">
         <v>1350</v>
@@ -808,16 +808,16 @@
         <v>4000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -827,11 +827,11 @@
         <v>4000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -842,16 +842,16 @@
         <v>4000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,11 +861,11 @@
         <v>50000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -876,16 +876,16 @@
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,11 +895,11 @@
         <v>100000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -910,11 +910,11 @@
         <v>4000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -925,11 +925,11 @@
         <v>4000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -940,16 +940,16 @@
         <v>100000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,11 +959,11 @@
         <v>200000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -974,19 +974,19 @@
         <v>4000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="3">
         <v>1379</v>
@@ -995,14 +995,14 @@
         <v>23000</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,13 +1012,13 @@
         <v>28000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1029,16 +1029,16 @@
         <v>50000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1048,16 +1048,16 @@
         <v>8000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1067,16 +1067,16 @@
         <v>5000</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,11 +1086,11 @@
         <v>20000</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1101,13 +1101,13 @@
         <v>40000</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1118,11 +1118,11 @@
         <v>100000</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -1133,16 +1133,16 @@
         <v>5000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1152,14 +1152,14 @@
         <v>2500</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1169,17 +1169,17 @@
         <v>200000</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
@@ -1188,16 +1188,16 @@
         <v>75000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1207,13 +1207,13 @@
         <v>50000</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1224,16 +1224,16 @@
         <v>30000</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1243,16 +1243,16 @@
         <v>17000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,16 +1262,16 @@
         <v>15000</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1281,16 +1281,16 @@
         <v>12000</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,14 +1300,14 @@
         <v>300000</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1317,14 +1317,14 @@
         <v>13000</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>17000</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1351,22 +1351,22 @@
         <v>3000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <v>117000</v>
@@ -1376,24 +1376,24 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1">
         <v>11000</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1404,13 +1404,13 @@
         <v>7000</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1421,13 +1421,13 @@
         <v>3000</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1438,11 +1438,11 @@
         <v>3600</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1453,13 +1453,13 @@
         <v>200000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1470,26 +1470,26 @@
         <v>134000</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1">
         <v>115000</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1500,13 +1500,13 @@
         <v>200000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1517,13 +1517,13 @@
         <v>200000</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1534,11 +1534,11 @@
         <v>200000</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1547,11 +1547,11 @@
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="1"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\projects\flowMagic_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C967F-A096-4871-A2DD-554BE947A137}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE2BF5B-FAEE-49D1-9BC7-7EA264DEF9E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="150" windowWidth="10905" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>maruko</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F01D622C-3890-40D0-B8D0-25FC7168A3C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maruko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(root: live cells &gt; 7 + other cell populations)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{C32E7A77-89B7-4773-A5FD-62EBC73FD625}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maruko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(root: live cells &gt; 17 + other cell populations)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{B1830D9A-FC12-410B-9883-CD42ACC2FD3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maruko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(root: leukocyte &gt; 17 + 2 other cell populations)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{D94F1B66-1EF8-471B-99A6-123873C092B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maruko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(18 train + 10 test) human blood samples x 4 pregnancy time points (early, mid, late, post-partum)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{28FC9DC3-D56C-438C-809D-F8458ECC1D5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maruko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(root: lymphocyte &gt; 19 cell populations)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{62910F81-1B75-497B-B858-7C99BD3F3062}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maruko:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+(522 female + 7 male) wildtype +  1799 knockout</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="178">
   <si>
     <t>Data set</t>
   </si>
@@ -48,78 +202,9 @@
     <t>Leaf cell populations</t>
   </si>
   <si>
-    <t>2D scatterplots</t>
-  </si>
-  <si>
     <t>Cell population</t>
   </si>
   <si>
-    <t>112 = (18 train + 10 test) human blood samples x 4 pregnancy time points (early, mid, late, post-partum)</t>
-  </si>
-  <si>
-    <t>CD5CD21_Bcell</t>
-  </si>
-  <si>
-    <t>CD11bLy6C_NK</t>
-  </si>
-  <si>
-    <t>CD11bLy6C_NKTcell</t>
-  </si>
-  <si>
-    <t>CD11bMHCII_cDC</t>
-  </si>
-  <si>
-    <t>CD11bSSCh_NotMonocyte</t>
-  </si>
-  <si>
-    <t>CD19CD11c_NotTcell</t>
-  </si>
-  <si>
-    <t>CD23CD21_B2Bcell</t>
-  </si>
-  <si>
-    <t>CD161CD19_NotEosinophils</t>
-  </si>
-  <si>
-    <t>Ly6CCD11b_NotGranulocyte</t>
-  </si>
-  <si>
-    <t>MHCIICD5_NotCD161</t>
-  </si>
-  <si>
-    <t>CD3CD19_mononuclear</t>
-  </si>
-  <si>
-    <t>CD4CD8_Tcell</t>
-  </si>
-  <si>
-    <t>CD4CD45RA_Tcell</t>
-  </si>
-  <si>
-    <t>CD8CD45RA_NotCD4CD8Tcell</t>
-  </si>
-  <si>
-    <t>CD14CD7_NKLinNeg</t>
-  </si>
-  <si>
-    <t>CD14CD16_lin-</t>
-  </si>
-  <si>
-    <t>CD66CD45_Leukocyte</t>
-  </si>
-  <si>
-    <t>FoxP3CD25_CD4Tcell</t>
-  </si>
-  <si>
-    <t>TbetCD45RA_CD8Tcell</t>
-  </si>
-  <si>
-    <t>TCRgdCD3_CD4Tcell</t>
-  </si>
-  <si>
-    <t>2328 = (522 female + 7 male) wildtype +  1799 knockout</t>
-  </si>
-  <si>
     <t>CD10CD27_CD19+CD20+</t>
   </si>
   <si>
@@ -147,27 +232,12 @@
     <t>FSCaSSCa_Singlets</t>
   </si>
   <si>
-    <t>IgDIgM_CD19+Bcells</t>
-  </si>
-  <si>
     <t>CD3gd_CD3+Tcell</t>
   </si>
   <si>
     <t>CD3SSCa_HLADR-CD14-</t>
   </si>
   <si>
-    <t>CD11bCD16_Granulocyte</t>
-  </si>
-  <si>
-    <t>CD14CD16_HLADR+CD14+Monocyte</t>
-  </si>
-  <si>
-    <t>CD16CD56_CD3-</t>
-  </si>
-  <si>
-    <t>CD16CD56_CD3+Tcell</t>
-  </si>
-  <si>
     <t>CD64CD11b_CD11b+CD16+MatureNeutrophil</t>
   </si>
   <si>
@@ -189,27 +259,18 @@
     <t>4 (atypical Bcell, unswitched memory Bcell, naïve Bcell, switched memory Bcell)</t>
   </si>
   <si>
-    <t>2?</t>
-  </si>
-  <si>
     <t>2 (granulocyte, nongranulocyte)</t>
   </si>
   <si>
     <t>2+ (beads, cells, other)</t>
   </si>
   <si>
-    <t>? 41 samples, CD123HLADR_CD56-CD16-</t>
-  </si>
-  <si>
     <t>1+ (basophil, other)</t>
   </si>
   <si>
     <t>5 (CD56 Hi NK, CD56-CD16-, CD56-CD16+ NK, CD56dimCD16- NK, CD56dimCD16+ NK)</t>
   </si>
   <si>
-    <t>3?</t>
-  </si>
-  <si>
     <t>2 (CD3+ Tcell, CD3-)</t>
   </si>
   <si>
@@ -315,21 +376,6 @@
     <t>4 (CD4+ naïve Tcell, CD4+ memory Tcell, CD4+Th1 naïve Tcell, CD4+ Th1 memory Tcell)</t>
   </si>
   <si>
-    <t>HIPC Bcell (root: live cells &gt; 7 + other cell populations)</t>
-  </si>
-  <si>
-    <t>HIPC myeloid (root: live cells &gt; 17 + other cell populations)</t>
-  </si>
-  <si>
-    <t>pregnancy (root: leukocyte &gt; 17 + 2 other cell populations)</t>
-  </si>
-  <si>
-    <t>sanger P2 (root: lymphocyte &gt; 19 cell populations)</t>
-  </si>
-  <si>
-    <t>?CD5CD11b_CD161</t>
-  </si>
-  <si>
     <t>2 (NKT, NK)</t>
   </si>
   <si>
@@ -360,9 +406,6 @@
     <t>2 (CD64+, CD64-)</t>
   </si>
   <si>
-    <t>1?</t>
-  </si>
-  <si>
     <t>1+ (CD56+CD16+ NKTcell, other)</t>
   </si>
   <si>
@@ -423,14 +466,269 @@
     <t>2 (CD161, CD19)</t>
   </si>
   <si>
-    <t>01_CD5CD11b_CD11b+lymphocyte_</t>
+    <t>HIPC Bcell</t>
+  </si>
+  <si>
+    <t>HIPC myeloid</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
+    <t>sanger P2</t>
+  </si>
+  <si>
+    <t>1+ (live cell, other)</t>
+  </si>
+  <si>
+    <t>CD16.FITCACD56_CD3-</t>
+  </si>
+  <si>
+    <t>CD16.FITCACD56_CD3+Tcell</t>
+  </si>
+  <si>
+    <t>viabilitydyeSSCA_Allcell</t>
+  </si>
+  <si>
+    <t>IgDIgM_CD19+Bcell</t>
+  </si>
+  <si>
+    <t>CD11bCD16.FITCA_Granulocyte</t>
+  </si>
+  <si>
+    <t>CD14CD16.FTICA_HLADR+CD14+Monocyte</t>
+  </si>
+  <si>
+    <t>CD123HLADR_CD56-CD16-cell</t>
+  </si>
+  <si>
+    <t>HLADRCD14_CD45+CD66-NonGranulocyte</t>
+  </si>
+  <si>
+    <t>3+ (HLADR+CD14+Monocyte, HLADR+CD14-, HLADR-CD14-, other)</t>
+  </si>
+  <si>
+    <t>2D scatterplot</t>
+  </si>
+  <si>
+    <t>01_CD5CD11b_CD11b+lymphocyte</t>
+  </si>
+  <si>
+    <t>02_Ly6CCD11b_NotGranulocyte</t>
+  </si>
+  <si>
+    <t>03_CD11bSSCh_NotMonocyte</t>
+  </si>
+  <si>
+    <t>04_CD161CD19_NotEosinophils</t>
+  </si>
+  <si>
+    <t>05_CD5CD11b_CD161+</t>
+  </si>
+  <si>
+    <t>08_MHCIICD5_CD161-</t>
+  </si>
+  <si>
+    <t>12_CD23CD21_B2Bcell</t>
+  </si>
+  <si>
+    <t>09_CD19CD11c_NotTcell</t>
+  </si>
+  <si>
+    <t>10_CD11bMHCII_cDC</t>
+  </si>
+  <si>
+    <t>07_CD11bLy6C_NKTcell</t>
+  </si>
+  <si>
+    <t>06_CD11bLy6C_NK</t>
+  </si>
+  <si>
+    <t>11_CD5CD21_Bcell</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; /; between (8/o)</t>
+  </si>
+  <si>
+    <t>2 (CD27, IgD)</t>
+  </si>
+  <si>
+    <t>1 threshold vertical; upper inflection; tight; rare</t>
+  </si>
+  <si>
+    <t>1 threshold vertical; upper inflection; tight; polygon; rare</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; upper inflection; rare</t>
+  </si>
+  <si>
+    <t>2 threshold; horizontol lower, vertical upper inflection; 3 rare</t>
+  </si>
+  <si>
+    <t>2 threshold; horizontol upper, vertical lower inflection; rare; top right</t>
+  </si>
+  <si>
+    <t>2 threshold; horizontol between, vertical upper inflection; rare; bottom right</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; between (8|*)</t>
+  </si>
+  <si>
+    <t>2 (CD38, CD138)</t>
+  </si>
+  <si>
+    <t>2 (CD38, CD27)</t>
+  </si>
+  <si>
+    <t>2 (CD34, SSCa)</t>
+  </si>
+  <si>
+    <t>2 threshold; \ vertical some between some middle, / horizontal between</t>
+  </si>
+  <si>
+    <t>1 threshold vertical; /; some between, some upper inflection</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; some between, some upper inflection</t>
+  </si>
+  <si>
+    <t>1 (gd)</t>
+  </si>
+  <si>
+    <t>1 threshold vertical; between; upper</t>
+  </si>
+  <si>
+    <t>2 threshold; horizontol, vertical lower inflection; tight; 3 rare</t>
+  </si>
+  <si>
+    <t>2 threshold; horizontol, vertical upper inflection; tight; 3 rare</t>
+  </si>
+  <si>
+    <t>1 horizontal, 2 vertical, 1 top left horizontal threshold; tight</t>
+  </si>
+  <si>
+    <t>2 threshold; upper inflection; top right</t>
+  </si>
+  <si>
+    <t>2 (CD16, CD56)</t>
+  </si>
+  <si>
+    <t>1 vertical threshold; left of density center; some +1 threshold horizontal below density center</t>
+  </si>
+  <si>
+    <t>2 polygon from threshold; loose fit two clusters; leave out bottom left cluster</t>
+  </si>
+  <si>
+    <t>1 hoizontal between threshold; 1 vertical threshold in botton between</t>
+  </si>
+  <si>
+    <t>1 polygon round on right; some tall skinny; some bottom</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>1 threshold hosizontal; 1 polygon right; between</t>
+  </si>
+  <si>
+    <t>2 round polygon; tight</t>
+  </si>
+  <si>
+    <t>2 thresholds; top clusters are smeared</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; between</t>
+  </si>
+  <si>
+    <t>2 thresholds; some smeared</t>
+  </si>
+  <si>
+    <t>02_CD3CD19_mononuclear</t>
+  </si>
+  <si>
+    <t>05_CD4CD8_Tcell</t>
+  </si>
+  <si>
+    <t>06_CD4CD45RA_Tcell</t>
+  </si>
+  <si>
+    <t>09_CD8CD45RA_NotCD4CD8Tcell</t>
+  </si>
+  <si>
+    <t>03_CD14CD7_NKLinNeg</t>
+  </si>
+  <si>
+    <t>04_CD14CD16_lin-</t>
+  </si>
+  <si>
+    <t>01_CD66CD45_Leukocyte</t>
+  </si>
+  <si>
+    <t>07_FoxP3CD25_CD4Tcell</t>
+  </si>
+  <si>
+    <t>10_TbetCD45RA_CD8Tcell</t>
+  </si>
+  <si>
+    <t>08_TCRgdCD3_CD4Tcell</t>
+  </si>
+  <si>
+    <t>2 thresholds; top right, bottom left smeared</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; between, some smeared</t>
+  </si>
+  <si>
+    <t>1 polygon from thresholds; top; rare</t>
+  </si>
+  <si>
+    <t>1 round polygon; some tip of smear</t>
+  </si>
+  <si>
+    <t>1 threshold horizontal; /; upper inflection; rare</t>
+  </si>
+  <si>
+    <t>1 polygon from thresholds; top right</t>
+  </si>
+  <si>
+    <t>2 thresholds; bottom right, top left clusters</t>
+  </si>
+  <si>
+    <t>2 thresholds; vertical tight upper; smeared</t>
+  </si>
+  <si>
+    <t>1 polygon; cut off botton of cluster…</t>
+  </si>
+  <si>
+    <t>2 threshold horizontal, vertical on top; between</t>
+  </si>
+  <si>
+    <t>2 threshold; top right; rare</t>
+  </si>
+  <si>
+    <t>2 polygon; tight lower; top left, bottom right</t>
+  </si>
+  <si>
+    <t>3 triangle polygons</t>
+  </si>
+  <si>
+    <t>2 thresholds; bottom right, rest</t>
+  </si>
+  <si>
+    <t>2 thresholds; top right; some smear</t>
+  </si>
+  <si>
+    <t>1 threshold; /; between, some smeared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +738,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -475,8 +794,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,11 +1076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,9 +1091,10 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,788 +1105,968 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1">
         <v>1350</v>
       </c>
       <c r="C2" s="1">
         <v>4000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>4000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>4000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>50000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="H5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <v>4000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="2">
         <v>100000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="H7" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <v>4000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>4000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="2">
         <v>100000</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3">
         <v>200000</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="H11" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>4000</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="H12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>125000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="1">
         <v>1379</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>23000</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>28000</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>8000</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1">
+      <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>5000</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1">
-        <v>20000</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>40000</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2">
-        <v>100000</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>45</v>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1">
+      <c r="H20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
         <v>5000</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1">
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
         <v>2500</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1">
-        <v>200000</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3">
+        <v>125000</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1">
         <v>75000</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1">
-        <v>17000</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1">
-        <v>15000</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1">
+      <c r="H31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
         <v>12000</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2">
+      <c r="D32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2">
         <v>300000</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="1">
-        <v>17000</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
+      <c r="D33" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
-        <v>117000</v>
+        <v>13000</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2328</v>
+      </c>
+      <c r="C37" s="1">
+        <v>117000</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
         <v>11000</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="1">
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
         <v>7000</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1">
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
         <v>3000</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1">
+      <c r="D40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
         <v>3600</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1">
-        <v>200000</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1">
-        <v>134000</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1">
-        <v>115000</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="H41" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1">
         <v>200000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="H42" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <v>200000</v>
+        <v>134000</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="H43" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>200000</v>
+        <v>115000</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>200000</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B34:B45"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A34:A45"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\projects\flowMagic_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CE9ED3-B4F4-44CB-8FB5-488DB17EACEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF7B3E-2D12-4196-93F9-D88FA22998AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,9 +526,6 @@
     <t>2+: CD25+CD8+ naïve Tcell, CD25+CD8+ memory Tcell, CD25+CD8+ Tcell other</t>
   </si>
   <si>
-    <t>1+ (blasts, other</t>
-  </si>
-  <si>
     <t>2: Bcell, not Bcell</t>
   </si>
   <si>
@@ -651,9 +648,6 @@
     <t>1: CD20</t>
   </si>
   <si>
-    <t>2: CD19+CD20+, CD19+CD20-</t>
-  </si>
-  <si>
     <t>1+: CD19+Bcell, other</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>1: CD66</t>
   </si>
   <si>
-    <t>2: granulocyte, not granulocyte</t>
-  </si>
-  <si>
     <t>2+: beads, cells, other</t>
   </si>
   <si>
@@ -690,27 +681,12 @@
     <t>2: CD11b, CD16</t>
   </si>
   <si>
-    <t>4: CD11b+CD16+ mature neutrophil, CD11b-CD16- immature neutrophil 1, CD11b+CD16- granulocyte, CD11b-CD16+ immature neutrophil 2</t>
-  </si>
-  <si>
     <t>2: CD11c, CD123</t>
   </si>
   <si>
-    <t>3: mDC, pDC, Bcell</t>
-  </si>
-  <si>
-    <t>1+: basophil, other</t>
-  </si>
-  <si>
     <t>1: CD16</t>
   </si>
   <si>
-    <t>2: Non/classical monocyte</t>
-  </si>
-  <si>
-    <t>5: CD56 Hi NK, CD56-CD16-, CD56-CD16+ NK, CD56dimCD16- NK, CD56dimCD16+ NK</t>
-  </si>
-  <si>
     <t>2: CD16, CD56</t>
   </si>
   <si>
@@ -720,45 +696,27 @@
     <t>1: gd</t>
   </si>
   <si>
-    <t>2: gd Tcell, gd- Tcell</t>
-  </si>
-  <si>
     <t>1: CD3</t>
   </si>
   <si>
     <t>2: CD3+ Tcell, CD3-</t>
   </si>
   <si>
-    <t>2: CD64+, CD64-</t>
-  </si>
-  <si>
     <t>2+: granulocyte, CD45+CD66- not granulocyte, other</t>
   </si>
   <si>
     <t>3+: HLADR+CD14+Monocyte, HLADR+CD14-, HLADR-CD14-, other</t>
   </si>
   <si>
-    <t>2+: granulocyte, mononuclear</t>
-  </si>
-  <si>
     <t>2: CD3, CD19</t>
   </si>
   <si>
-    <t>3+: Bcell, Tcell, NK lin-, other</t>
-  </si>
-  <si>
     <t>1: CD7</t>
   </si>
   <si>
-    <t>2: lin-, NK</t>
-  </si>
-  <si>
     <t>2: CD14, CD16</t>
   </si>
   <si>
-    <t>4: cMC, ncMC, intMC, notMC</t>
-  </si>
-  <si>
     <t>2: CD4, CD8</t>
   </si>
   <si>
@@ -768,36 +726,18 @@
     <t>1: CD45RA</t>
   </si>
   <si>
-    <t>2: CD4+ naïve Tcell, CD4+ memory Tcell</t>
-  </si>
-  <si>
-    <t>1+: Tregs naïve Tcell, CD4+ naïve Tcell other</t>
-  </si>
-  <si>
-    <t>1+: gamma-delta Tcell, CD4-CD8- Tcell other</t>
-  </si>
-  <si>
     <t>2: Tbet, CD45RA</t>
   </si>
   <si>
     <t>2: CD5, Ly6C</t>
   </si>
   <si>
-    <t>2: granulocyte, nongranulocyte</t>
-  </si>
-  <si>
     <t>2: CD11b, Ly6C</t>
   </si>
   <si>
-    <t>2: monocyte, not monocyte</t>
-  </si>
-  <si>
     <t>2: CD11b, SSCh</t>
   </si>
   <si>
-    <t>2: eosinophil, not eosinophil</t>
-  </si>
-  <si>
     <t>2: CD161, CD19</t>
   </si>
   <si>
@@ -807,12 +747,6 @@
     <t>2: NKT, NK</t>
   </si>
   <si>
-    <t>4: NK immature Ly6C+, NK mature Ly6C+, NK immature Ly6C-, NK mature Ly6C-</t>
-  </si>
-  <si>
-    <t>4: NKT CD11b-Ly6C+, NKT CD11b+Ly6C+, NKT CD11b-Ly6C-, NKT CD11b+Ly6C-</t>
-  </si>
-  <si>
     <r>
       <t>2D scatterplot (</t>
     </r>
@@ -858,6 +792,446 @@
         <scheme val="minor"/>
       </rPr>
       <t>atypical Bcell, unswitched memory Bcell, naïve Bcell, switched memory Bcell</t>
+    </r>
+  </si>
+  <si>
+    <t>1+: blasts, other</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NKT CD11b-Ly6C+, NKT CD11b+Ly6C+, NKT CD11b-Ly6C-, NKT CD11b+Ly6C-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NK immature Ly6C+, NK mature Ly6C+, NK immature Ly6C-, NK mature Ly6C-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eosinophil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, not eosinophil</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monocyte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, not monocyte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>granulocyte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nongranulocyte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2+: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>granulocyte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, mononuclear</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3+: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bcell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Tcell, NK lin-, other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: lin-, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cMC, ncMC, intMC, notMC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD4+ naïve Tcell, CD4+ memory Tcell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1+: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tregs naïve Tcell, CD4+ naïve Tcell other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1+:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gamma-delta Tcell, CD4-CD8- Tcell other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non/classical monocyte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mDC, pDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Bcell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gd Tcell, gd- Tcell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD56 Hi NK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, CD56-CD16-, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD56-CD16+ NK, CD56dimCD16- NK, CD56dimCD16+ NK</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1+: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>basophil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4: CD11b+CD16+ mature neutrophil, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD11b-CD16- immature neutrophil 1, CD11b+CD16- granulocyte, CD11b-CD16+ immature neutrophil 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD64+, CD64-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>granulocyte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, not granulocyte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2: CD19+CD20+,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CD19+CD20-</t>
     </r>
   </si>
 </sst>
@@ -1234,7 +1608,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>95</v>
@@ -1284,10 +1658,10 @@
         <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -1308,7 +1682,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -1328,10 +1702,10 @@
         <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>17</v>
@@ -1352,7 +1726,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
@@ -1372,10 +1746,10 @@
         <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
@@ -1395,10 +1769,10 @@
         <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>20</v>
@@ -1418,10 +1792,10 @@
         <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -1441,10 +1815,10 @@
         <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
@@ -1464,10 +1838,10 @@
         <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
@@ -1488,7 +1862,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
@@ -1508,10 +1882,10 @@
         <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
@@ -1531,7 +1905,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>23</v>
@@ -1551,16 +1925,16 @@
         <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -1574,10 +1948,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>32</v>
@@ -1598,7 +1972,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>33</v>
@@ -1618,16 +1992,16 @@
         <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -1642,7 +2016,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>28</v>
@@ -1662,10 +2036,10 @@
         <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>29</v>
@@ -1685,10 +2059,10 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>24</v>
@@ -1708,10 +2082,10 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>25</v>
@@ -1732,7 +2106,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>30</v>
@@ -1753,7 +2127,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>31</v>
@@ -1774,7 +2148,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>34</v>
@@ -1795,7 +2169,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>35</v>
@@ -1815,7 +2189,7 @@
         <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>34</v>
@@ -1836,7 +2210,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>36</v>
@@ -1856,10 +2230,10 @@
         <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>37</v>
@@ -1879,10 +2253,10 @@
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>38</v>
@@ -1902,10 +2276,10 @@
         <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>39</v>
@@ -1925,10 +2299,10 @@
         <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>43</v>
@@ -1948,10 +2322,10 @@
         <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>44</v>
@@ -1972,7 +2346,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>45</v>
@@ -1993,13 +2367,13 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +2387,7 @@
         <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>97</v>
@@ -2033,7 +2407,7 @@
         <v>83</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>98</v>
@@ -2042,7 +2416,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
@@ -2056,10 +2430,10 @@
         <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>48</v>
@@ -2079,10 +2453,10 @@
         <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>57</v>
@@ -2102,10 +2476,10 @@
         <v>86</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>53</v>
@@ -2125,10 +2499,10 @@
         <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>56</v>
@@ -2149,7 +2523,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>58</v>
@@ -2169,10 +2543,10 @@
         <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>49</v>
@@ -2192,10 +2566,10 @@
         <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>50</v>
@@ -2216,7 +2590,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>51</v>
@@ -2237,7 +2611,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>54</v>
@@ -2258,7 +2632,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>52</v>
@@ -2279,7 +2653,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>47</v>
@@ -2300,7 +2674,7 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>55</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\projects\flowMagic_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\school\grad\projects\flowMagic_data\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBF7B3E-2D12-4196-93F9-D88FA22998AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68296872-3477-4E5B-86C2-90C8D0BF8835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="170">
   <si>
     <t>Data set</t>
   </si>
@@ -478,9 +478,6 @@
     <t>HIPCbcell</t>
   </si>
   <si>
-    <t>threshold gate(s)</t>
-  </si>
-  <si>
     <r>
       <t>Cell population (</t>
     </r>
@@ -1233,6 +1230,18 @@
       </rPr>
       <t xml:space="preserve"> CD19+CD20-</t>
     </r>
+  </si>
+  <si>
+    <t>irregular polygon</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>straight gates</t>
+  </si>
+  <si>
+    <t>Threshold gate(s)</t>
   </si>
 </sst>
 </file>
@@ -1283,12 +1292,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1303,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1325,6 +1340,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1605,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1650,7 @@
     <col min="7" max="7" width="42.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,19 +1661,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>94</v>
       </c>
@@ -1658,16 +1696,19 @@
         <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -1682,13 +1723,16 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
@@ -1702,16 +1746,19 @@
         <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -1726,13 +1773,16 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
@@ -1746,16 +1796,19 @@
         <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>94</v>
       </c>
@@ -1769,16 +1822,19 @@
         <v>91</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -1792,16 +1848,19 @@
         <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -1815,16 +1874,19 @@
         <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -1838,16 +1900,19 @@
         <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1862,13 +1927,16 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -1882,16 +1950,19 @@
         <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -1905,13 +1976,16 @@
         <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -1925,16 +1999,19 @@
         <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
@@ -1948,16 +2025,19 @@
         <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -1972,13 +2052,16 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>93</v>
       </c>
@@ -1992,16 +2075,19 @@
         <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2016,13 +2102,16 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -2036,16 +2125,19 @@
         <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -2059,16 +2151,19 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -2082,16 +2177,19 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -2106,13 +2204,16 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -2127,34 +2228,37 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="10">
         <v>1379</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="11">
         <v>200000</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -2169,33 +2273,36 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="10">
         <v>1371</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="11">
         <v>125000</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -2210,13 +2317,16 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2230,16 +2340,19 @@
         <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2253,16 +2366,19 @@
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -2276,16 +2392,19 @@
         <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -2299,16 +2418,19 @@
         <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -2322,16 +2444,19 @@
         <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2346,13 +2471,16 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2367,13 +2495,16 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2387,13 +2518,16 @@
         <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -2407,16 +2541,19 @@
         <v>83</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
@@ -2430,16 +2567,19 @@
         <v>84</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
@@ -2453,16 +2593,19 @@
         <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
@@ -2476,16 +2619,19 @@
         <v>86</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -2499,16 +2645,19 @@
         <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -2523,13 +2672,16 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -2543,16 +2695,19 @@
         <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2566,16 +2721,19 @@
         <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
@@ -2590,13 +2748,16 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -2611,13 +2772,16 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2632,13 +2796,16 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -2653,13 +2820,16 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2674,10 +2844,13 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
